--- a/results/mnist_training/results_rehearsal_0.3_mnist.xlsx
+++ b/results/mnist_training/results_rehearsal_0.3_mnist.xlsx
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8339956575632095</v>
+        <v>0.8327183051904042</v>
       </c>
       <c r="D3">
-        <v>0.3417461514472961</v>
+        <v>0.2629008889198303</v>
       </c>
       <c r="E3">
-        <v>50.775</v>
+        <v>50.075</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.000869463400542736</v>
+        <v>0.0007948803655803203</v>
       </c>
       <c r="J3">
-        <v>95.14</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.3437717977662881</v>
+        <v>0.32978572199742</v>
       </c>
       <c r="D4">
-        <v>0.2685084044933319</v>
+        <v>0.2006393224000931</v>
       </c>
       <c r="E4">
-        <v>51.485</v>
+        <v>50.6</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.02193863501548767</v>
+        <v>0.02240673894882202</v>
       </c>
       <c r="J4">
-        <v>6.41</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.2706853923698266</v>
+        <v>0.2617048191527526</v>
       </c>
       <c r="D5">
-        <v>0.2359663397073746</v>
+        <v>0.205285906791687</v>
       </c>
       <c r="E5">
-        <v>51.47</v>
+        <v>51.17</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0005274824626743794</v>
+        <v>0.0005153852149844169</v>
       </c>
       <c r="J5">
-        <v>96.56</v>
+        <v>96.92</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2314272154867649</v>
+        <v>0.2284036330878735</v>
       </c>
       <c r="D6">
-        <v>0.2319594174623489</v>
+        <v>0.189491406083107</v>
       </c>
       <c r="E6">
-        <v>52.28</v>
+        <v>51.395</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.02193758482933044</v>
+        <v>0.02288375849723816</v>
       </c>
       <c r="J6">
-        <v>6.41</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.2095558732499679</v>
+        <v>0.1986810893068711</v>
       </c>
       <c r="D7">
-        <v>0.2289186120033264</v>
+        <v>0.1767840385437012</v>
       </c>
       <c r="E7">
-        <v>52.625</v>
+        <v>52.38</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.000423751026019454</v>
+        <v>0.0004101879324764013</v>
       </c>
       <c r="J7">
-        <v>97.34999999999999</v>
+        <v>97.39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1947792200495799</v>
+        <v>0.1863324035455783</v>
       </c>
       <c r="D8">
-        <v>0.248657613992691</v>
+        <v>0.195091187953949</v>
       </c>
       <c r="E8">
-        <v>53.82</v>
+        <v>51.95</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.02096982958316803</v>
+        <v>0.0235283983707428</v>
       </c>
       <c r="J8">
-        <v>5.59</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1827800183743238</v>
+        <v>0.1752372899403175</v>
       </c>
       <c r="D9">
-        <v>0.2506965696811676</v>
+        <v>0.1782370358705521</v>
       </c>
       <c r="E9">
-        <v>53.185</v>
+        <v>54.96</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.0003594360001385212</v>
+        <v>0.0003750847801566124</v>
       </c>
       <c r="J9">
-        <v>97.81</v>
+        <v>97.66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.172087788010637</v>
+        <v>0.1665617942561706</v>
       </c>
       <c r="D10">
-        <v>0.2571791708469391</v>
+        <v>0.1860470622777939</v>
       </c>
       <c r="E10">
-        <v>55.785</v>
+        <v>54.065</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.02070948138237</v>
+        <v>0.02283454623222351</v>
       </c>
       <c r="J10">
-        <v>6.75</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.164198866126438</v>
+        <v>0.1603707117090623</v>
       </c>
       <c r="D11">
-        <v>0.2654900848865509</v>
+        <v>0.1896622776985168</v>
       </c>
       <c r="E11">
-        <v>55</v>
+        <v>52.525</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.0003390011692419648</v>
+        <v>0.0003192673930898309</v>
       </c>
       <c r="J11">
-        <v>97.86</v>
+        <v>97.91</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.1585775102302432</v>
+        <v>0.1545308415343364</v>
       </c>
       <c r="D12">
-        <v>0.2599287927150726</v>
+        <v>0.1811615228652954</v>
       </c>
       <c r="E12">
-        <v>55.12</v>
+        <v>53.04499999999999</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.01752305600643158</v>
+        <v>0.02317061281204224</v>
       </c>
       <c r="J12">
-        <v>7.39</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1869573795795441</v>
+        <v>0.1859352317204078</v>
       </c>
       <c r="D13">
-        <v>0.2471764534711838</v>
+        <v>0.1873974204063416</v>
       </c>
       <c r="E13">
-        <v>53.06</v>
+        <v>51.695</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0003129710752516985</v>
+        <v>0.0002846676487475634</v>
       </c>
       <c r="J13">
-        <v>98.12</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1829974700013796</v>
+        <v>0.1737010881304741</v>
       </c>
       <c r="D14">
-        <v>0.2542353570461273</v>
+        <v>0.1944380253553391</v>
       </c>
       <c r="E14">
-        <v>52.38</v>
+        <v>51.485</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.02076043462753296</v>
+        <v>0.02205983543395996</v>
       </c>
       <c r="J14">
-        <v>9.52</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.177765850139161</v>
+        <v>0.1717557261884212</v>
       </c>
       <c r="D15">
-        <v>0.2525491118431091</v>
+        <v>0.1841953247785568</v>
       </c>
       <c r="E15">
-        <v>52.26</v>
+        <v>51.89</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.0002838896600529552</v>
+        <v>0.0002790348171256483</v>
       </c>
       <c r="J15">
-        <v>98.25</v>
+        <v>98.09</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1744916288057963</v>
+        <v>0.1664062363654375</v>
       </c>
       <c r="D16">
-        <v>0.2535624802112579</v>
+        <v>0.1861054748296738</v>
       </c>
       <c r="E16">
-        <v>53.105</v>
+        <v>52.22</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.0210124924659729</v>
+        <v>0.02238861594200134</v>
       </c>
       <c r="J16">
-        <v>8.119999999999999</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.1676347452153762</v>
+        <v>0.165186561246713</v>
       </c>
       <c r="D17">
-        <v>0.254820317029953</v>
+        <v>0.1854090094566345</v>
       </c>
       <c r="E17">
-        <v>53.81</v>
+        <v>52.395</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.0002512010670732707</v>
+        <v>0.0002637006020173431</v>
       </c>
       <c r="J17">
-        <v>98.45</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1923258627206087</v>
+        <v>0.1853200420737267</v>
       </c>
       <c r="D18">
-        <v>0.243659496307373</v>
+        <v>0.1855220794677734</v>
       </c>
       <c r="E18">
-        <v>52.5</v>
+        <v>51.805</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.0197969407081604</v>
+        <v>0.02298582253456116</v>
       </c>
       <c r="J18">
-        <v>13.12</v>
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1910037234177192</v>
+        <v>0.1806253221382697</v>
       </c>
       <c r="D19">
-        <v>0.2486702799797058</v>
+        <v>0.1886716485023499</v>
       </c>
       <c r="E19">
-        <v>52.635</v>
+        <v>51.82</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.000253006543032825</v>
+        <v>0.0002518085229210555</v>
       </c>
       <c r="J19">
-        <v>98.29000000000001</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1843331334739924</v>
+        <v>0.1780630962302287</v>
       </c>
       <c r="D20">
-        <v>0.2470652163028717</v>
+        <v>0.1876509040594101</v>
       </c>
       <c r="E20">
-        <v>52.61</v>
+        <v>51.695</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.01995948832035065</v>
+        <v>0.0228384934425354</v>
       </c>
       <c r="J20">
-        <v>11.71</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1827019910017649</v>
+        <v>0.17647079842786</v>
       </c>
       <c r="D21">
-        <v>0.2463151812553406</v>
+        <v>0.1890277713537216</v>
       </c>
       <c r="E21">
-        <v>52.70999999999999</v>
+        <v>51.805</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.0002305827299132943</v>
+        <v>0.0002275230087339878</v>
       </c>
       <c r="J21">
-        <v>98.54000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1831205813090007</v>
+        <v>0.1739157663782438</v>
       </c>
       <c r="D22">
-        <v>0.2466807514429092</v>
+        <v>0.1904923021793365</v>
       </c>
       <c r="E22">
-        <v>52.62</v>
+        <v>51.8</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.01863041715621948</v>
+        <v>0.02200998542308807</v>
       </c>
       <c r="J22">
-        <v>11.7</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.2018839443723361</v>
+        <v>0.1908884824067354</v>
       </c>
       <c r="D23">
-        <v>0.2332818955183029</v>
+        <v>0.1797586679458618</v>
       </c>
       <c r="E23">
-        <v>52.565</v>
+        <v>52.035</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.0003072429191321135</v>
+        <v>0.000304473464936018</v>
       </c>
       <c r="J23">
-        <v>98.12</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1936836313456297</v>
+        <v>0.1913277608156204</v>
       </c>
       <c r="D24">
-        <v>0.2374100834131241</v>
+        <v>0.1815340369939804</v>
       </c>
       <c r="E24">
-        <v>52.59</v>
+        <v>51.92</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.02056532945632935</v>
+        <v>0.02341353325843811</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1950846847146749</v>
+        <v>0.179010299667716</v>
       </c>
       <c r="D25">
-        <v>0.24013452231884</v>
+        <v>0.1840372085571289</v>
       </c>
       <c r="E25">
-        <v>52.58</v>
+        <v>51.83</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.0002985259120352566</v>
+        <v>0.0002894041112624109</v>
       </c>
       <c r="J25">
-        <v>98.18000000000001</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1921076996376117</v>
+        <v>0.1866367976615826</v>
       </c>
       <c r="D26">
-        <v>0.241418793797493</v>
+        <v>0.1844793111085892</v>
       </c>
       <c r="E26">
-        <v>52.54</v>
+        <v>51.79499999999999</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.02099731874465943</v>
+        <v>0.02346663255691528</v>
       </c>
       <c r="J26">
-        <v>6.58</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1903405473629634</v>
+        <v>0.1833546552062034</v>
       </c>
       <c r="D27">
-        <v>0.2439293414354324</v>
+        <v>0.1842901110649109</v>
       </c>
       <c r="E27">
-        <v>52.65</v>
+        <v>51.77</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.0002952567455358804</v>
+        <v>0.0002819935998879373</v>
       </c>
       <c r="J27">
-        <v>98.06999999999999</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.2047503668566545</v>
+        <v>0.1921901762237151</v>
       </c>
       <c r="D28">
-        <v>0.2299007028341293</v>
+        <v>0.1773668229579926</v>
       </c>
       <c r="E28">
-        <v>52.59</v>
+        <v>52.25</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,10 +1204,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.02107165434360504</v>
+        <v>0.02323497486114502</v>
       </c>
       <c r="J28">
-        <v>6.45</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.2008897630125284</v>
+        <v>0.1885010398427645</v>
       </c>
       <c r="D29">
-        <v>0.2308126091957092</v>
+        <v>0.1780612915754318</v>
       </c>
       <c r="E29">
-        <v>52.585</v>
+        <v>52.20500000000001</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.0002805970369838178</v>
+        <v>0.0002770538222044706</v>
       </c>
       <c r="J29">
         <v>98.2</v>
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.2010720497121413</v>
+        <v>0.1859066470960776</v>
       </c>
       <c r="D30">
-        <v>0.2317298501729965</v>
+        <v>0.1788780838251114</v>
       </c>
       <c r="E30">
-        <v>52.58</v>
+        <v>52.125</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,10 +1262,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.02062507019042969</v>
+        <v>0.0234915237903595</v>
       </c>
       <c r="J30">
-        <v>8.01</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.2032493482281764</v>
+        <v>0.1886560523509979</v>
       </c>
       <c r="D31">
-        <v>0.2325752675533295</v>
+        <v>0.1794351935386658</v>
       </c>
       <c r="E31">
-        <v>52.58</v>
+        <v>52.05500000000001</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.0002771914116106927</v>
+        <v>0.0002709649289026856</v>
       </c>
       <c r="J31">
-        <v>98.22</v>
+        <v>98.20999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1983458808312814</v>
+        <v>0.1833954198161761</v>
       </c>
       <c r="D32">
-        <v>0.2335378676652908</v>
+        <v>0.1799647957086563</v>
       </c>
       <c r="E32">
-        <v>52.605</v>
+        <v>51.975</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.02105659437179565</v>
+        <v>0.02368489465713501</v>
       </c>
       <c r="J32">
-        <v>9.4</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -1334,10 +1334,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0003198699442669749</v>
+        <v>0.0003048951558768749</v>
       </c>
       <c r="J33">
-        <v>97.98</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -1348,10 +1348,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.01949782915115356</v>
+        <v>0.02287768816947937</v>
       </c>
       <c r="J34">
-        <v>7.02</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="35" spans="7:10">
@@ -1362,10 +1362,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.0003142243165522814</v>
+        <v>0.0003025807389989495</v>
       </c>
       <c r="J35">
-        <v>98.02</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="36" spans="7:10">
@@ -1376,10 +1376,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.01999299607276916</v>
+        <v>0.02303206343650818</v>
       </c>
       <c r="J36">
-        <v>7.25</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="37" spans="7:10">
@@ -1390,10 +1390,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.0003102067310363054</v>
+        <v>0.0002989743631333113</v>
       </c>
       <c r="J37">
-        <v>98.06</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="38" spans="7:10">
@@ -1404,10 +1404,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.02024333546161652</v>
+        <v>0.02339926700592041</v>
       </c>
       <c r="J38">
-        <v>7.16</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="39" spans="7:10">
@@ -1418,10 +1418,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.000306175179220736</v>
+        <v>0.0002983971459791064</v>
       </c>
       <c r="J39">
-        <v>98.09999999999999</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="40" spans="7:10">
@@ -1432,10 +1432,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.02068072416782379</v>
+        <v>0.02338472023010254</v>
       </c>
       <c r="J40">
-        <v>7.32</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="41" spans="7:10">
@@ -1446,10 +1446,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0003016101527959109</v>
+        <v>0.0002967736698687077</v>
       </c>
       <c r="J41">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
     </row>
     <row r="42" spans="7:10">
@@ -1460,10 +1460,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.02067168064117432</v>
+        <v>0.02353206005096435</v>
       </c>
       <c r="J42">
-        <v>7.08</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="43" spans="7:10">
@@ -1474,10 +1474,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.0003322491792961955</v>
+        <v>0.0003116843644529581</v>
       </c>
       <c r="J43">
-        <v>97.87</v>
+        <v>97.91</v>
       </c>
     </row>
     <row r="44" spans="7:10">
@@ -1488,10 +1488,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.01800075731277466</v>
+        <v>0.02291009068489075</v>
       </c>
       <c r="J44">
-        <v>7.26</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="45" spans="7:10">
@@ -1502,10 +1502,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.000328363199904561</v>
+        <v>0.0003095360320061445</v>
       </c>
       <c r="J45">
-        <v>97.92</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="46" spans="7:10">
@@ -1516,10 +1516,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.01845658764839172</v>
+        <v>0.02288066840171814</v>
       </c>
       <c r="J46">
-        <v>7.26</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="47" spans="7:10">
@@ -1530,10 +1530,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.0003249976299703121</v>
+        <v>0.0003081054547801614</v>
       </c>
       <c r="J47">
-        <v>97.95</v>
+        <v>97.97</v>
       </c>
     </row>
     <row r="48" spans="7:10">
@@ -1544,10 +1544,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.0188138747215271</v>
+        <v>0.02295818419456482</v>
       </c>
       <c r="J48">
-        <v>7.21</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -1558,10 +1558,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.0003224088557064533</v>
+        <v>0.0003063718827441335</v>
       </c>
       <c r="J49">
-        <v>97.94</v>
+        <v>97.98999999999999</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1572,10 +1572,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.01908356921672821</v>
+        <v>0.02303064079284668</v>
       </c>
       <c r="J50">
-        <v>7.14</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -1586,10 +1586,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.0003207745926454664</v>
+        <v>0.0003062082592397928</v>
       </c>
       <c r="J51">
-        <v>97.95</v>
+        <v>97.98999999999999</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1600,10 +1600,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.01927488925457001</v>
+        <v>0.02309829745292664</v>
       </c>
       <c r="J52">
-        <v>7.35</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -1614,10 +1614,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0003372945107519627</v>
+        <v>0.000316610886901617</v>
       </c>
       <c r="J53">
-        <v>97.84</v>
+        <v>97.92</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1628,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.01762284927368164</v>
+        <v>0.02312429718971253</v>
       </c>
       <c r="J54">
-        <v>7.34</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -1642,10 +1642,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.0003356789898127317</v>
+        <v>0.0003150276144966483</v>
       </c>
       <c r="J55">
-        <v>97.86</v>
+        <v>97.93000000000001</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1656,10 +1656,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.01773134541511536</v>
+        <v>0.02308546657562256</v>
       </c>
       <c r="J56">
-        <v>7.31</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -1670,10 +1670,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.0003341417960822582</v>
+        <v>0.0003137475721538067</v>
       </c>
       <c r="J57">
-        <v>97.88</v>
+        <v>97.91</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1684,10 +1684,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.01783809535503388</v>
+        <v>0.0230549364566803</v>
       </c>
       <c r="J58">
-        <v>7.28</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -1698,10 +1698,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.0003329186270013451</v>
+        <v>0.0003125702103599906</v>
       </c>
       <c r="J59">
-        <v>97.88</v>
+        <v>97.93000000000001</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1712,10 +1712,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.01793770422935486</v>
+        <v>0.02303344960212707</v>
       </c>
       <c r="J60">
-        <v>7.28</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -1726,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0003317133521661162</v>
+        <v>0.0003117049856111407</v>
       </c>
       <c r="J61">
-        <v>97.88</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1740,10 +1740,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.01803388860225677</v>
+        <v>0.02303141531944275</v>
       </c>
       <c r="J62">
-        <v>7.33</v>
+        <v>6.05</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1816,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0445187382209</v>
+        <v>1.077103569874397</v>
       </c>
       <c r="D3">
-        <v>0.5269492864608765</v>
+        <v>0.5535919070243835</v>
       </c>
       <c r="E3">
-        <v>86.205</v>
+        <v>86.53</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1831,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.0005603691708296537</v>
+        <v>0.0005784078933298587</v>
       </c>
       <c r="J3">
-        <v>96.69</v>
+        <v>96.39</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1845,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7241169657462683</v>
+        <v>0.7105177763180855</v>
       </c>
       <c r="D4">
-        <v>0.4536854326725006</v>
+        <v>0.4602880775928497</v>
       </c>
       <c r="E4">
-        <v>87.72499999999999</v>
+        <v>87.91999999999999</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1860,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.003266399997472763</v>
+        <v>0.003278120404481888</v>
       </c>
       <c r="J4">
-        <v>75.72</v>
+        <v>76.67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1874,13 +1874,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.6588919151287812</v>
+        <v>0.644675446397219</v>
       </c>
       <c r="D5">
-        <v>0.4153116643428802</v>
+        <v>0.4003351032733917</v>
       </c>
       <c r="E5">
-        <v>88.72999999999999</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1889,10 +1889,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0005183236982673407</v>
+        <v>0.0004987453948706389</v>
       </c>
       <c r="J5">
-        <v>96.89</v>
+        <v>96.84999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1903,13 +1903,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.620087664326032</v>
+        <v>0.6051554086116644</v>
       </c>
       <c r="D6">
-        <v>0.3994852304458618</v>
+        <v>0.3763229846954346</v>
       </c>
       <c r="E6">
-        <v>89.295</v>
+        <v>89.685</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1918,10 +1918,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.00285235381424427</v>
+        <v>0.002852979528903961</v>
       </c>
       <c r="J6">
-        <v>78.56</v>
+        <v>78.98999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1932,13 +1932,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5964306485194426</v>
+        <v>0.5791100850472084</v>
       </c>
       <c r="D7">
-        <v>0.3830426931381226</v>
+        <v>0.3642950057983398</v>
       </c>
       <c r="E7">
-        <v>89.68000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1947,10 +1947,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.0005170659180730582</v>
+        <v>0.0005252866871654987</v>
       </c>
       <c r="J7">
-        <v>96.91</v>
+        <v>96.72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1961,13 +1961,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5772334948564187</v>
+        <v>0.5630765720819816</v>
       </c>
       <c r="D8">
-        <v>0.3525292277336121</v>
+        <v>0.331146627664566</v>
       </c>
       <c r="E8">
-        <v>89.855</v>
+        <v>90.72499999999999</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1976,10 +1976,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.002643615537881851</v>
+        <v>0.002603936421871185</v>
       </c>
       <c r="J8">
-        <v>80.55</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1990,13 +1990,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5629185503109907</v>
+        <v>0.5438377018158252</v>
       </c>
       <c r="D9">
-        <v>0.3379355669021606</v>
+        <v>0.3120346963405609</v>
       </c>
       <c r="E9">
-        <v>90.53999999999999</v>
+        <v>90.905</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.0005064009618014097</v>
+        <v>0.000506603953614831</v>
       </c>
       <c r="J9">
         <v>96.92</v>
@@ -2019,13 +2019,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5449859164464168</v>
+        <v>0.534007777311863</v>
       </c>
       <c r="D10">
-        <v>0.3317293226718903</v>
+        <v>0.297664076089859</v>
       </c>
       <c r="E10">
-        <v>90.435</v>
+        <v>91.205</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2034,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.002539004752039909</v>
+        <v>0.002440598914027214</v>
       </c>
       <c r="J10">
-        <v>81.67</v>
+        <v>82.45</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2048,13 +2048,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5332416640642362</v>
+        <v>0.5276356978294177</v>
       </c>
       <c r="D11">
-        <v>0.3245842158794403</v>
+        <v>0.3086945414543152</v>
       </c>
       <c r="E11">
-        <v>90.53</v>
+        <v>91.17500000000001</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.0005178557310253381</v>
+        <v>0.000469186869263649</v>
       </c>
       <c r="J11">
-        <v>96.90000000000001</v>
+        <v>97.16</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2077,13 +2077,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5220248853548979</v>
+        <v>0.5180095435717167</v>
       </c>
       <c r="D12">
-        <v>0.3067554831504822</v>
+        <v>0.2950750589370728</v>
       </c>
       <c r="E12">
-        <v>90.965</v>
+        <v>91.46000000000001</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2092,10 +2092,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.002479400140047073</v>
+        <v>0.002311922371387482</v>
       </c>
       <c r="J12">
-        <v>82.45999999999999</v>
+        <v>83.64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2106,13 +2106,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5156900531970537</v>
+        <v>0.5090565448388075</v>
       </c>
       <c r="D13">
-        <v>0.3051681220531464</v>
+        <v>0.2814764678478241</v>
       </c>
       <c r="E13">
-        <v>91.12</v>
+        <v>91.47499999999999</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0004966519687324763</v>
+        <v>0.0004549167059361935</v>
       </c>
       <c r="J13">
-        <v>96.92</v>
+        <v>97.13</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2135,13 +2135,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5049388704391626</v>
+        <v>0.5000143199394911</v>
       </c>
       <c r="D14">
-        <v>0.2844199538230896</v>
+        <v>0.2907288074493408</v>
       </c>
       <c r="E14">
-        <v>91.34999999999999</v>
+        <v>91.39</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2150,10 +2150,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.002380518680810928</v>
+        <v>0.002244402688741684</v>
       </c>
       <c r="J14">
-        <v>82.79000000000001</v>
+        <v>84.31999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2164,13 +2164,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4932216527370306</v>
+        <v>0.4983336402055545</v>
       </c>
       <c r="D15">
-        <v>0.2744235098361969</v>
+        <v>0.2841904163360596</v>
       </c>
       <c r="E15">
-        <v>91.19</v>
+        <v>91.655</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2179,10 +2179,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.0004454371351748705</v>
+        <v>0.0004406679719686508</v>
       </c>
       <c r="J15">
-        <v>97.3</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2193,13 +2193,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4895680721753683</v>
+        <v>0.4889194655112731</v>
       </c>
       <c r="D16">
-        <v>0.284693568944931</v>
+        <v>0.2741003632545471</v>
       </c>
       <c r="E16">
-        <v>91.46000000000001</v>
+        <v>91.72999999999999</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2208,10 +2208,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.002293850207328797</v>
+        <v>0.002170548471808433</v>
       </c>
       <c r="J16">
-        <v>83.78</v>
+        <v>84.56</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2222,13 +2222,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4861561872256108</v>
+        <v>0.4844563294679691</v>
       </c>
       <c r="D17">
-        <v>0.28205606341362</v>
+        <v>0.2717061638832092</v>
       </c>
       <c r="E17">
-        <v>91.205</v>
+        <v>91.66499999999999</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2237,10 +2237,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.0004642195977270603</v>
+        <v>0.0004313912406563759</v>
       </c>
       <c r="J17">
-        <v>97.28</v>
+        <v>97.41</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2251,13 +2251,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4820171489929542</v>
+        <v>0.4802726138096589</v>
       </c>
       <c r="D18">
-        <v>0.2550269067287445</v>
+        <v>0.2678481638431549</v>
       </c>
       <c r="E18">
-        <v>91.64</v>
+        <v>91.86</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2266,10 +2266,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.002255395355820656</v>
+        <v>0.002125870290398598</v>
       </c>
       <c r="J18">
-        <v>83.59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2280,13 +2280,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.4760014415551455</v>
+        <v>0.4787835617860158</v>
       </c>
       <c r="D19">
-        <v>0.2336909770965576</v>
+        <v>0.2727287411689758</v>
       </c>
       <c r="E19">
-        <v>91.505</v>
+        <v>92.03</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2295,10 +2295,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.0004548343393951654</v>
+        <v>0.0004561830680817366</v>
       </c>
       <c r="J19">
-        <v>97.19</v>
+        <v>97.26000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2309,13 +2309,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.4686078416995513</v>
+        <v>0.472320295450015</v>
       </c>
       <c r="D20">
-        <v>0.2324663549661636</v>
+        <v>0.25863978266716</v>
       </c>
       <c r="E20">
-        <v>91.655</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2324,10 +2324,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.002198772689700127</v>
+        <v>0.002076014536619186</v>
       </c>
       <c r="J20">
-        <v>83.87</v>
+        <v>85.09</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2338,13 +2338,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4685786892970403</v>
+        <v>0.4652601858744255</v>
       </c>
       <c r="D21">
-        <v>0.2428079098463058</v>
+        <v>0.2716094553470612</v>
       </c>
       <c r="E21">
-        <v>91.78</v>
+        <v>91.91</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2353,10 +2353,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.0004268303964287043</v>
+        <v>0.0004312794625759125</v>
       </c>
       <c r="J21">
-        <v>97.40000000000001</v>
+        <v>97.36</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2367,13 +2367,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4608495698525356</v>
+        <v>0.4676321578331483</v>
       </c>
       <c r="D22">
-        <v>0.2422832697629929</v>
+        <v>0.2560151815414429</v>
       </c>
       <c r="E22">
-        <v>91.58000000000001</v>
+        <v>92.00999999999999</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2382,10 +2382,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.00214081637263298</v>
+        <v>0.002044125878810883</v>
       </c>
       <c r="J22">
-        <v>84.53</v>
+        <v>85.56</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2396,13 +2396,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4539104858270058</v>
+        <v>0.4634379613858003</v>
       </c>
       <c r="D23">
-        <v>0.2226750701665878</v>
+        <v>0.2526350915431976</v>
       </c>
       <c r="E23">
-        <v>91.735</v>
+        <v>92.03999999999999</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2411,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.0004350637212395668</v>
+        <v>0.0004290767561644315</v>
       </c>
       <c r="J23">
-        <v>97.45999999999999</v>
+        <v>97.36</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2425,13 +2425,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4525087428398621</v>
+        <v>0.4625831140157504</v>
       </c>
       <c r="D24">
-        <v>0.223254606127739</v>
+        <v>0.2494297027587891</v>
       </c>
       <c r="E24">
-        <v>91.77000000000001</v>
+        <v>92.12</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2440,10 +2440,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.002102686038613319</v>
+        <v>0.002007985624670982</v>
       </c>
       <c r="J24">
-        <v>84.78</v>
+        <v>85.59</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2454,13 +2454,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4485122511784236</v>
+        <v>0.4599839293039762</v>
       </c>
       <c r="D25">
-        <v>0.2276013493537903</v>
+        <v>0.2332025319337845</v>
       </c>
       <c r="E25">
-        <v>91.94</v>
+        <v>92.245</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2469,10 +2469,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.0004219857543706894</v>
+        <v>0.0004402859050780535</v>
       </c>
       <c r="J25">
-        <v>97.38</v>
+        <v>97.28</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2483,13 +2483,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.4463758703225698</v>
+        <v>0.4549837159040647</v>
       </c>
       <c r="D26">
-        <v>0.2094333618879318</v>
+        <v>0.2410232573747635</v>
       </c>
       <c r="E26">
-        <v>91.995</v>
+        <v>92.27000000000001</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2498,10 +2498,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.002072088739275932</v>
+        <v>0.002010314255952835</v>
       </c>
       <c r="J26">
-        <v>85.31999999999999</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.4476505648631316</v>
+        <v>0.455334761662361</v>
       </c>
       <c r="D27">
-        <v>0.2045104801654816</v>
+        <v>0.2572555243968964</v>
       </c>
       <c r="E27">
-        <v>92.155</v>
+        <v>92.315</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2527,10 +2527,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.000431285598129034</v>
+        <v>0.0004321198105812073</v>
       </c>
       <c r="J27">
-        <v>97.45999999999999</v>
+        <v>97.38</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2541,13 +2541,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.4416645758427106</v>
+        <v>0.4526556757780222</v>
       </c>
       <c r="D28">
-        <v>0.2119620889425278</v>
+        <v>0.2357026040554047</v>
       </c>
       <c r="E28">
-        <v>92.22</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2556,10 +2556,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.00203494411110878</v>
+        <v>0.001961359962821007</v>
       </c>
       <c r="J28">
-        <v>84.92</v>
+        <v>85.93000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2570,13 +2570,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.4378285069496204</v>
+        <v>0.4465103001930775</v>
       </c>
       <c r="D29">
-        <v>0.2127009630203247</v>
+        <v>0.2317560166120529</v>
       </c>
       <c r="E29">
-        <v>92.16499999999999</v>
+        <v>92.175</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.000423471362143755</v>
+        <v>0.000416396763548255</v>
       </c>
       <c r="J29">
-        <v>97.55</v>
+        <v>97.41</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2599,13 +2599,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.4377568082167552</v>
+        <v>0.4500961965475327</v>
       </c>
       <c r="D30">
-        <v>0.1994509249925613</v>
+        <v>0.2487483322620392</v>
       </c>
       <c r="E30">
-        <v>92.01000000000001</v>
+        <v>92.44</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2614,10 +2614,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.002010443940758705</v>
+        <v>0.001946384236216545</v>
       </c>
       <c r="J30">
-        <v>85.37</v>
+        <v>86.05</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2628,13 +2628,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.4395259912961569</v>
+        <v>0.4452314318754734</v>
       </c>
       <c r="D31">
-        <v>0.1985025107860565</v>
+        <v>0.2218016684055328</v>
       </c>
       <c r="E31">
-        <v>92.16999999999999</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2643,10 +2643,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.0004360297093167901</v>
+        <v>0.0004125759134069085</v>
       </c>
       <c r="J31">
-        <v>97.31</v>
+        <v>97.62</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2657,13 +2657,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.4340593577959599</v>
+        <v>0.4441002037280645</v>
       </c>
       <c r="D32">
-        <v>0.1973386704921722</v>
+        <v>0.2346549928188324</v>
       </c>
       <c r="E32">
-        <v>92.31</v>
+        <v>92.375</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2672,10 +2672,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.002017810672521591</v>
+        <v>0.001928330504894257</v>
       </c>
       <c r="J32">
-        <v>85.09999999999999</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2686,13 +2686,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.4345559065922713</v>
+        <v>0.4433179235611207</v>
       </c>
       <c r="D33">
-        <v>0.2023365199565887</v>
+        <v>0.2575747668743134</v>
       </c>
       <c r="E33">
-        <v>92.18000000000001</v>
+        <v>92.44</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2701,10 +2701,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0004248511876910925</v>
+        <v>0.0004165844833478332</v>
       </c>
       <c r="J33">
-        <v>97.37</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2715,13 +2715,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.4308381290772023</v>
+        <v>0.4421399209743891</v>
       </c>
       <c r="D34">
-        <v>0.1974855214357376</v>
+        <v>0.2466926872730255</v>
       </c>
       <c r="E34">
-        <v>92.255</v>
+        <v>92.37</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2730,10 +2730,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.001951587024331093</v>
+        <v>0.001896917530894279</v>
       </c>
       <c r="J34">
-        <v>85.91</v>
+        <v>86.28</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2744,13 +2744,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.4273984996172098</v>
+        <v>0.4361311975962077</v>
       </c>
       <c r="D35">
-        <v>0.1975426524877548</v>
+        <v>0.2268834263086319</v>
       </c>
       <c r="E35">
-        <v>92.315</v>
+        <v>92.47499999999999</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2759,10 +2759,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.0004320562217384577</v>
+        <v>0.0004009293735027313</v>
       </c>
       <c r="J35">
-        <v>97.3</v>
+        <v>97.66</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2773,13 +2773,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.4289287669536395</v>
+        <v>0.4384010260303815</v>
       </c>
       <c r="D36">
-        <v>0.2018034160137177</v>
+        <v>0.2246806919574738</v>
       </c>
       <c r="E36">
-        <v>92.36500000000001</v>
+        <v>92.595</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2788,10 +2788,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.001936847198009491</v>
+        <v>0.001899345284700394</v>
       </c>
       <c r="J36">
-        <v>85.70999999999999</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2802,13 +2802,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.4255266211735896</v>
+        <v>0.4347502265603114</v>
       </c>
       <c r="D37">
-        <v>0.2007710635662079</v>
+        <v>0.2213932126760483</v>
       </c>
       <c r="E37">
-        <v>92.5</v>
+        <v>92.59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2817,10 +2817,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.0004003889251500368</v>
+        <v>0.0004016240261495113</v>
       </c>
       <c r="J37">
-        <v>97.34999999999999</v>
+        <v>97.41</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2831,13 +2831,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.4261206166866498</v>
+        <v>0.4309702423138496</v>
       </c>
       <c r="D38">
-        <v>0.1882307231426239</v>
+        <v>0.2319033294916153</v>
       </c>
       <c r="E38">
-        <v>92.31999999999999</v>
+        <v>92.52500000000001</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2846,10 +2846,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.001906503793597221</v>
+        <v>0.001866377757489681</v>
       </c>
       <c r="J38">
-        <v>85.95999999999999</v>
+        <v>86.79000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2860,13 +2860,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.4173422636894079</v>
+        <v>0.4280848102691846</v>
       </c>
       <c r="D39">
-        <v>0.1924734115600586</v>
+        <v>0.2280090302228928</v>
       </c>
       <c r="E39">
-        <v>92.31</v>
+        <v>92.545</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2875,10 +2875,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.0004156703189015388</v>
+        <v>0.0004051683209836483</v>
       </c>
       <c r="J39">
-        <v>97.42</v>
+        <v>97.56</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2889,13 +2889,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.4120466526502218</v>
+        <v>0.4233236280771402</v>
       </c>
       <c r="D40">
-        <v>0.1918993145227432</v>
+        <v>0.2347119599580765</v>
       </c>
       <c r="E40">
-        <v>92.36</v>
+        <v>92.53999999999999</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2904,10 +2904,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.001898501667380333</v>
+        <v>0.001883581936359405</v>
       </c>
       <c r="J40">
-        <v>86.14</v>
+        <v>86.26000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2918,13 +2918,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.4153154603945903</v>
+        <v>0.4241145113339791</v>
       </c>
       <c r="D41">
-        <v>0.1893002539873123</v>
+        <v>0.2270455807447433</v>
       </c>
       <c r="E41">
-        <v>92.38</v>
+        <v>92.69499999999999</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2933,10 +2933,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0004145744156092405</v>
+        <v>0.0004026072662323714</v>
       </c>
       <c r="J41">
-        <v>97.23</v>
+        <v>97.53</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2947,13 +2947,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.416007307324654</v>
+        <v>0.4211749299978599</v>
       </c>
       <c r="D42">
-        <v>0.1893698424100876</v>
+        <v>0.2297224551439285</v>
       </c>
       <c r="E42">
-        <v>92.405</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2962,10 +2962,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.001900998467206955</v>
+        <v>0.001840450899302959</v>
       </c>
       <c r="J42">
-        <v>85.93000000000001</v>
+        <v>86.48999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2976,13 +2976,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.4119571885619408</v>
+        <v>0.4273821126192044</v>
       </c>
       <c r="D43">
-        <v>0.1881502568721771</v>
+        <v>0.2243584096431732</v>
       </c>
       <c r="E43">
-        <v>92.31</v>
+        <v>92.515</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.0004164575314149261</v>
+        <v>0.0004082676865160465</v>
       </c>
       <c r="J43">
-        <v>97.26000000000001</v>
+        <v>97.52</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3005,13 +3005,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.412190253726947</v>
+        <v>0.4245249730654252</v>
       </c>
       <c r="D44">
-        <v>0.1889214664697647</v>
+        <v>0.2282929420471191</v>
       </c>
       <c r="E44">
-        <v>92.28</v>
+        <v>92.52</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -3020,10 +3020,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.001864583045244217</v>
+        <v>0.001837056544423103</v>
       </c>
       <c r="J44">
-        <v>86.20999999999999</v>
+        <v>86.56</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3034,13 +3034,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.4119855690078857</v>
+        <v>0.4241005823398248</v>
       </c>
       <c r="D45">
-        <v>0.1842340081930161</v>
+        <v>0.2280018180608749</v>
       </c>
       <c r="E45">
-        <v>92.35499999999999</v>
+        <v>92.535</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.0004051197772845626</v>
+        <v>0.0004004208795726299</v>
       </c>
       <c r="J45">
-        <v>97.45</v>
+        <v>97.66</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3063,13 +3063,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.4081682880719503</v>
+        <v>0.427167812983195</v>
       </c>
       <c r="D46">
-        <v>0.18417689204216</v>
+        <v>0.2286712825298309</v>
       </c>
       <c r="E46">
-        <v>92.42500000000001</v>
+        <v>92.58500000000001</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -3078,10 +3078,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.001879847808182239</v>
+        <v>0.001824413737654686</v>
       </c>
       <c r="J46">
-        <v>86.09</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3092,13 +3092,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.4090941698887409</v>
+        <v>0.4275239033194689</v>
       </c>
       <c r="D47">
-        <v>0.1851659417152405</v>
+        <v>0.2296748161315918</v>
       </c>
       <c r="E47">
-        <v>92.505</v>
+        <v>92.545</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3107,10 +3107,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.0004067974012345076</v>
+        <v>0.0003907130252569914</v>
       </c>
       <c r="J47">
-        <v>97.44</v>
+        <v>97.64</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3121,13 +3121,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.408673841601763</v>
+        <v>0.4267666462140206</v>
       </c>
       <c r="D48">
-        <v>0.1797843426465988</v>
+        <v>0.2220453768968582</v>
       </c>
       <c r="E48">
-        <v>92.43000000000001</v>
+        <v>92.58500000000001</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3136,10 +3136,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.001847099514305592</v>
+        <v>0.001821413987874985</v>
       </c>
       <c r="J48">
-        <v>86.44</v>
+        <v>86.84999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3150,13 +3150,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.4097870123692048</v>
+        <v>0.4254703086920273</v>
       </c>
       <c r="D49">
-        <v>0.1854284703731537</v>
+        <v>0.2232596278190613</v>
       </c>
       <c r="E49">
-        <v>92.395</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3165,10 +3165,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.0003909644674509764</v>
+        <v>0.0003766936307772994</v>
       </c>
       <c r="J49">
-        <v>97.61</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3179,13 +3179,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.4049073163515482</v>
+        <v>0.426962975355295</v>
       </c>
       <c r="D50">
-        <v>0.1831278949975967</v>
+        <v>0.2239534705877304</v>
       </c>
       <c r="E50">
-        <v>92.42</v>
+        <v>92.56</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -3194,10 +3194,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.001843127715587616</v>
+        <v>0.00181866968870163</v>
       </c>
       <c r="J50">
-        <v>86.38</v>
+        <v>86.81</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3208,13 +3208,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.4096103124893629</v>
+        <v>0.4267029939553676</v>
       </c>
       <c r="D51">
-        <v>0.1882414966821671</v>
+        <v>0.2244641780853271</v>
       </c>
       <c r="E51">
-        <v>92.485</v>
+        <v>92.55000000000001</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3223,10 +3223,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.0003771290186792612</v>
+        <v>0.0003789353720843792</v>
       </c>
       <c r="J51">
-        <v>97.61</v>
+        <v>97.70999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3237,10 +3237,10 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.4061438386638959</v>
+        <v>0.4265399595101674</v>
       </c>
       <c r="D52">
-        <v>0.1834089905023575</v>
+        <v>0.2249321937561035</v>
       </c>
       <c r="E52">
         <v>92.535</v>
@@ -3252,10 +3252,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.001807470080256462</v>
+        <v>0.001815070310235023</v>
       </c>
       <c r="J52">
-        <v>86.7</v>
+        <v>86.92</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3266,13 +3266,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.4069382092127433</v>
+        <v>0.4280880668988595</v>
       </c>
       <c r="D53">
-        <v>0.1776072233915329</v>
+        <v>0.2215919941663742</v>
       </c>
       <c r="E53">
-        <v>92.52000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3281,10 +3281,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0003786730565130711</v>
+        <v>0.0003830693332478404</v>
       </c>
       <c r="J53">
-        <v>97.56</v>
+        <v>97.68000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3295,13 +3295,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.4054896149879847</v>
+        <v>0.4284013393597725</v>
       </c>
       <c r="D54">
-        <v>0.1768756061792374</v>
+        <v>0.2219599634408951</v>
       </c>
       <c r="E54">
-        <v>92.495</v>
+        <v>92.61499999999999</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -3310,10 +3310,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.001787536698579788</v>
+        <v>0.001793383410573006</v>
       </c>
       <c r="J54">
-        <v>86.88</v>
+        <v>86.68000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3324,13 +3324,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.406718299480585</v>
+        <v>0.4264511094643519</v>
       </c>
       <c r="D55">
-        <v>0.1813044548034668</v>
+        <v>0.2222812324762344</v>
       </c>
       <c r="E55">
-        <v>92.48999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.0003696091366931796</v>
+        <v>0.0003847368519753218</v>
       </c>
       <c r="J55">
         <v>97.64</v>
@@ -3353,13 +3353,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.4024483183255562</v>
+        <v>0.4274357708600851</v>
       </c>
       <c r="D56">
-        <v>0.1813169717788696</v>
+        <v>0.2227084040641785</v>
       </c>
       <c r="E56">
-        <v>92.52500000000001</v>
+        <v>92.60499999999999</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -3368,10 +3368,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.001805451512336731</v>
+        <v>0.001816487234830856</v>
       </c>
       <c r="J56">
-        <v>86.69</v>
+        <v>86.70999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3382,13 +3382,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.4043545757348721</v>
+        <v>0.4308900670745434</v>
       </c>
       <c r="D57">
-        <v>0.1827571541070938</v>
+        <v>0.2231263667345047</v>
       </c>
       <c r="E57">
-        <v>92.46000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -3397,28 +3397,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.0003829462103545666</v>
+        <v>0.0003733950138092041</v>
       </c>
       <c r="J57">
-        <v>97.62</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>0.4003720341584621</v>
-      </c>
-      <c r="D58">
-        <v>0.1790863573551178</v>
-      </c>
-      <c r="E58">
-        <v>92.55500000000001</v>
-      </c>
       <c r="G58">
         <v>2</v>
       </c>
@@ -3426,28 +3411,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.001835523754358292</v>
+        <v>0.001779066760838032</v>
       </c>
       <c r="J58">
-        <v>86.40000000000001</v>
+        <v>87.11</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>0.4031241718011025</v>
-      </c>
-      <c r="D59">
-        <v>0.1843733489513397</v>
-      </c>
-      <c r="E59">
-        <v>92.64500000000001</v>
-      </c>
       <c r="G59">
         <v>1</v>
       </c>
@@ -3455,28 +3425,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.000387180570140481</v>
+        <v>0.000372710788808763</v>
       </c>
       <c r="J59">
-        <v>97.63</v>
+        <v>97.70999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>0.4009309524909044</v>
-      </c>
-      <c r="D60">
-        <v>0.177685409784317</v>
-      </c>
-      <c r="E60">
-        <v>92.495</v>
-      </c>
       <c r="G60">
         <v>2</v>
       </c>
@@ -3484,28 +3439,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.001767008623480797</v>
+        <v>0.00176592692732811</v>
       </c>
       <c r="J60">
-        <v>86.70999999999999</v>
+        <v>87.15000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>0.404688772559166</v>
-      </c>
-      <c r="D61">
-        <v>0.1791866272687912</v>
-      </c>
-      <c r="E61">
-        <v>92.53</v>
-      </c>
       <c r="G61">
         <v>1</v>
       </c>
@@ -3513,28 +3453,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0003923194397240877</v>
+        <v>0.0003743040151894092</v>
       </c>
       <c r="J61">
-        <v>97.64</v>
+        <v>97.67</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>0.4038681999230996</v>
-      </c>
-      <c r="D62">
-        <v>0.1787258982658386</v>
-      </c>
-      <c r="E62">
-        <v>92.53</v>
-      </c>
       <c r="G62">
         <v>2</v>
       </c>
@@ -3542,28 +3467,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.00176920687109232</v>
+        <v>0.001766710665822029</v>
       </c>
       <c r="J62">
-        <v>86.98</v>
+        <v>87.08</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63">
-        <v>61</v>
-      </c>
-      <c r="C63">
-        <v>0.4018500838524256</v>
-      </c>
-      <c r="D63">
-        <v>0.1781622320413589</v>
-      </c>
-      <c r="E63">
-        <v>92.53999999999999</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -3571,28 +3481,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.0003706714575178921</v>
+        <v>0.0003764369174838066</v>
       </c>
       <c r="J63">
-        <v>97.61</v>
+        <v>97.68000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>0.4012100005761171</v>
-      </c>
-      <c r="D64">
-        <v>0.1783605813980103</v>
-      </c>
-      <c r="E64">
-        <v>92.535</v>
-      </c>
       <c r="G64">
         <v>2</v>
       </c>
@@ -3600,28 +3495,13 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.001770550531148911</v>
+        <v>0.001753871300816536</v>
       </c>
       <c r="J64">
-        <v>86.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>0.4025418063768973</v>
-      </c>
-      <c r="D65">
-        <v>0.1769876927137375</v>
-      </c>
-      <c r="E65">
-        <v>92.52500000000001</v>
-      </c>
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>1</v>
       </c>
@@ -3629,28 +3509,13 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.0003680040802806616</v>
+        <v>0.0003815632384270429</v>
       </c>
       <c r="J65">
-        <v>97.59999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66">
-        <v>64</v>
-      </c>
-      <c r="C66">
-        <v>0.4021377697587013</v>
-      </c>
-      <c r="D66">
-        <v>0.1769965291023254</v>
-      </c>
-      <c r="E66">
-        <v>92.55000000000001</v>
-      </c>
+        <v>97.64</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>2</v>
       </c>
@@ -3658,28 +3523,13 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.001752681845426559</v>
+        <v>0.001751422736048698</v>
       </c>
       <c r="J66">
-        <v>86.91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
-      </c>
-      <c r="C67">
-        <v>0.4019743585433715</v>
-      </c>
-      <c r="D67">
-        <v>0.1774251312017441</v>
-      </c>
-      <c r="E67">
-        <v>92.52</v>
-      </c>
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>1</v>
       </c>
@@ -3687,28 +3537,13 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.0003632504186592996</v>
+        <v>0.0003725001195445657</v>
       </c>
       <c r="J67">
-        <v>97.61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68">
-        <v>66</v>
-      </c>
-      <c r="C68">
-        <v>0.4044006660580635</v>
-      </c>
-      <c r="D68">
-        <v>0.1773793399333954</v>
-      </c>
-      <c r="E68">
-        <v>92.505</v>
-      </c>
+        <v>97.72</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>2</v>
       </c>
@@ -3716,28 +3551,13 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.001730663938820362</v>
+        <v>0.00176302230656147</v>
       </c>
       <c r="J68">
-        <v>87.02</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>0.4050080992472477</v>
-      </c>
-      <c r="D69">
-        <v>0.1775021553039551</v>
-      </c>
-      <c r="E69">
-        <v>92.495</v>
-      </c>
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>1</v>
       </c>
@@ -3745,28 +3565,13 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.0003697913903743029</v>
+        <v>0.000360296044498682</v>
       </c>
       <c r="J69">
-        <v>97.69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>0.4049473198560568</v>
-      </c>
-      <c r="D70">
-        <v>0.1769615411758423</v>
-      </c>
-      <c r="E70">
-        <v>92.53</v>
-      </c>
+        <v>97.76000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>2</v>
       </c>
@@ -3774,28 +3579,13 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.001739005377888679</v>
+        <v>0.001720349743962288</v>
       </c>
       <c r="J70">
-        <v>87.04000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>69</v>
-      </c>
-      <c r="C71">
-        <v>0.3998638813312237</v>
-      </c>
-      <c r="D71">
-        <v>0.1770530492067337</v>
-      </c>
-      <c r="E71">
-        <v>92.51000000000001</v>
-      </c>
+        <v>87.43000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>1</v>
       </c>
@@ -3803,28 +3593,13 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.0003880148213356734</v>
+        <v>0.0003620669504627585</v>
       </c>
       <c r="J71">
-        <v>97.81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72">
-        <v>70</v>
-      </c>
-      <c r="C72">
-        <v>0.3995441457782036</v>
-      </c>
-      <c r="D72">
-        <v>0.1771760731935501</v>
-      </c>
-      <c r="E72">
-        <v>92.52</v>
-      </c>
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>2</v>
       </c>
@@ -3832,28 +3607,13 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.001740065979957581</v>
+        <v>0.001737923744320869</v>
       </c>
       <c r="J72">
-        <v>87.19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>0.4014741626305458</v>
-      </c>
-      <c r="D73">
-        <v>0.1772112250328064</v>
-      </c>
-      <c r="E73">
-        <v>92.50999999999999</v>
-      </c>
+        <v>87.43000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>1</v>
       </c>
@@ -3861,28 +3621,13 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.0003624526647850871</v>
+        <v>0.0003602314490824938</v>
       </c>
       <c r="J73">
-        <v>97.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <v>72</v>
-      </c>
-      <c r="C74">
-        <v>0.4038680525162281</v>
-      </c>
-      <c r="D74">
-        <v>0.1772533506155014</v>
-      </c>
-      <c r="E74">
-        <v>92.55000000000001</v>
-      </c>
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>2</v>
       </c>
@@ -3890,13 +3635,13 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.001746989770233631</v>
+        <v>0.001745038121938705</v>
       </c>
       <c r="J74">
-        <v>86.89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>87.26000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>1</v>
       </c>
@@ -3904,13 +3649,13 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.0003580903394147753</v>
+        <v>0.0003621015012264251</v>
       </c>
       <c r="J75">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>2</v>
       </c>
@@ -3918,13 +3663,13 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.001741451512277126</v>
+        <v>0.001729999059438705</v>
       </c>
       <c r="J76">
-        <v>86.92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>1</v>
       </c>
@@ -3932,13 +3677,13 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.0003551764260977507</v>
+        <v>0.0003652946762740612</v>
       </c>
       <c r="J77">
         <v>97.73</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>2</v>
       </c>
@@ -3946,13 +3691,13 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.001733219484984875</v>
+        <v>0.001729250535368919</v>
       </c>
       <c r="J78">
-        <v>86.98999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>87.34999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>1</v>
       </c>
@@ -3960,13 +3705,13 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.0003556244725361466</v>
+        <v>0.0003569539405405521</v>
       </c>
       <c r="J79">
-        <v>97.79000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>97.84</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>2</v>
       </c>
@@ -3974,10 +3719,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.001732270669937134</v>
+        <v>0.001722749018669129</v>
       </c>
       <c r="J80">
-        <v>86.97</v>
+        <v>87.55</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -3988,10 +3733,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.0003525347217917442</v>
+        <v>0.0003571800449863076</v>
       </c>
       <c r="J81">
-        <v>97.78</v>
+        <v>97.83</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4002,10 +3747,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.001728663019835949</v>
+        <v>0.0017325728520751</v>
       </c>
       <c r="J82">
-        <v>87.03</v>
+        <v>87.31</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4016,10 +3761,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.0003501906512305141</v>
+        <v>0.0003603548884391785</v>
       </c>
       <c r="J83">
-        <v>97.75</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -4030,10 +3775,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.001726186031103134</v>
+        <v>0.001732126826047897</v>
       </c>
       <c r="J84">
-        <v>86.87</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="85" spans="7:10">
@@ -4044,10 +3789,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.0003546749735251069</v>
+        <v>0.0003608726277947426</v>
       </c>
       <c r="J85">
-        <v>97.65000000000001</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="86" spans="7:10">
@@ -4058,10 +3803,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.001722042706608772</v>
+        <v>0.00172923037558794</v>
       </c>
       <c r="J86">
-        <v>86.91</v>
+        <v>87.23999999999999</v>
       </c>
     </row>
     <row r="87" spans="7:10">
@@ -4072,10 +3817,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.0003523915063589811</v>
+        <v>0.0003609544908627868</v>
       </c>
       <c r="J87">
-        <v>97.72</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="88" spans="7:10">
@@ -4086,10 +3831,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.0017206492587924</v>
+        <v>0.001732015398144722</v>
       </c>
       <c r="J88">
-        <v>86.98999999999999</v>
+        <v>87.31999999999999</v>
       </c>
     </row>
     <row r="89" spans="7:10">
@@ -4100,10 +3845,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.0003484523037448525</v>
+        <v>0.0003597904669120908</v>
       </c>
       <c r="J89">
-        <v>97.79000000000001</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="90" spans="7:10">
@@ -4114,10 +3859,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.001712401986122131</v>
+        <v>0.001727953894436359</v>
       </c>
       <c r="J90">
-        <v>87.06</v>
+        <v>87.33</v>
       </c>
     </row>
     <row r="91" spans="7:10">
@@ -4128,10 +3873,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.0003496781198307872</v>
+        <v>0.0003607136154547334</v>
       </c>
       <c r="J91">
-        <v>97.81999999999999</v>
+        <v>97.79000000000001</v>
       </c>
     </row>
     <row r="92" spans="7:10">
@@ -4142,10 +3887,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.001714564561843872</v>
+        <v>0.001728639097511768</v>
       </c>
       <c r="J92">
-        <v>87.19</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="93" spans="7:10">
@@ -4156,10 +3901,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.0003499998215585947</v>
+        <v>0.0003619790989905596</v>
       </c>
       <c r="J93">
-        <v>97.79000000000001</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="94" spans="7:10">
@@ -4170,10 +3915,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.00171131249666214</v>
+        <v>0.001734753274917602</v>
       </c>
       <c r="J94">
-        <v>87.06999999999999</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="95" spans="7:10">
@@ -4184,10 +3929,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.0003421151353046298</v>
+        <v>0.0003618895668536425</v>
       </c>
       <c r="J95">
-        <v>97.73999999999999</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="96" spans="7:10">
@@ -4198,10 +3943,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.001715054002404213</v>
+        <v>0.00173349994122982</v>
       </c>
       <c r="J96">
-        <v>87.05</v>
+        <v>87.36</v>
       </c>
     </row>
     <row r="97" spans="7:10">
@@ -4212,10 +3957,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.0003443693161010742</v>
+        <v>0.0003615876330062747</v>
       </c>
       <c r="J97">
-        <v>97.7</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="98" spans="7:10">
@@ -4226,10 +3971,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.001709316325187683</v>
+        <v>0.001732709401845932</v>
       </c>
       <c r="J98">
-        <v>87.14</v>
+        <v>87.34999999999999</v>
       </c>
     </row>
     <row r="99" spans="7:10">
@@ -4240,10 +3985,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.0003459250647574663</v>
+        <v>0.0003618798743933439</v>
       </c>
       <c r="J99">
-        <v>97.73</v>
+        <v>97.76000000000001</v>
       </c>
     </row>
     <row r="100" spans="7:10">
@@ -4254,10 +3999,10 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.00171167553961277</v>
+        <v>0.001732996587455273</v>
       </c>
       <c r="J100">
-        <v>87.23999999999999</v>
+        <v>87.34</v>
       </c>
     </row>
     <row r="101" spans="7:10">
@@ -4268,10 +4013,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.0003489592371508479</v>
+        <v>0.0003613033903762698</v>
       </c>
       <c r="J101">
-        <v>97.8</v>
+        <v>97.76000000000001</v>
       </c>
     </row>
     <row r="102" spans="7:10">
@@ -4282,10 +4027,10 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.001705122330784798</v>
+        <v>0.001732556265592575</v>
       </c>
       <c r="J102">
-        <v>87.27</v>
+        <v>87.31</v>
       </c>
     </row>
     <row r="103" spans="7:10">
@@ -4296,10 +4041,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.0003528362017124891</v>
+        <v>0.0003620755827054382</v>
       </c>
       <c r="J103">
-        <v>97.78</v>
+        <v>97.76000000000001</v>
       </c>
     </row>
     <row r="104" spans="7:10">
@@ -4310,10 +4055,10 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.001694798551499844</v>
+        <v>0.001736982649564743</v>
       </c>
       <c r="J104">
-        <v>87.26000000000001</v>
+        <v>87.44</v>
       </c>
     </row>
     <row r="105" spans="7:10">
@@ -4324,7 +4069,7 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.0003448708683252334</v>
+        <v>0.0003619696022942662</v>
       </c>
       <c r="J105">
         <v>97.77</v>
@@ -4338,10 +4083,10 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.00169442483484745</v>
+        <v>0.001736239172518253</v>
       </c>
       <c r="J106">
-        <v>87.22</v>
+        <v>87.45999999999999</v>
       </c>
     </row>
     <row r="107" spans="7:10">
@@ -4352,10 +4097,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.0003504882337525487</v>
+        <v>0.0003619760381057859</v>
       </c>
       <c r="J107">
-        <v>97.77</v>
+        <v>97.76000000000001</v>
       </c>
     </row>
     <row r="108" spans="7:10">
@@ -4366,10 +4111,10 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.001700303599238396</v>
+        <v>0.00173592686355114</v>
       </c>
       <c r="J108">
-        <v>87.20999999999999</v>
+        <v>87.44</v>
       </c>
     </row>
     <row r="109" spans="7:10">
@@ -4380,10 +4125,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.0003442991828545928</v>
+        <v>0.0003619629452005029</v>
       </c>
       <c r="J109">
-        <v>97.81</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="110" spans="7:10">
@@ -4394,10 +4139,10 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.001700366294384003</v>
+        <v>0.001735444217920303</v>
       </c>
       <c r="J110">
-        <v>87.23999999999999</v>
+        <v>87.44</v>
       </c>
     </row>
     <row r="111" spans="7:10">
@@ -4408,10 +4153,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.0003428826658055186</v>
+        <v>0.0003620219569653273</v>
       </c>
       <c r="J111">
-        <v>97.81</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="112" spans="7:10">
@@ -4422,486 +4167,10 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.001694455182552338</v>
+        <v>0.001735135740041733</v>
       </c>
       <c r="J112">
-        <v>87.11</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10">
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>56</v>
-      </c>
-      <c r="I113">
-        <v>0.0003466540496796369</v>
-      </c>
-      <c r="J113">
-        <v>97.76000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="7:10">
-      <c r="G114">
-        <v>2</v>
-      </c>
-      <c r="H114">
-        <v>56</v>
-      </c>
-      <c r="I114">
-        <v>0.001690300263464451</v>
-      </c>
-      <c r="J114">
-        <v>87.34999999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10">
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>57</v>
-      </c>
-      <c r="I115">
-        <v>0.000342256729118526</v>
-      </c>
-      <c r="J115">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10">
-      <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116">
-        <v>57</v>
-      </c>
-      <c r="I116">
-        <v>0.001702031007409096</v>
-      </c>
-      <c r="J116">
-        <v>87.39</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10">
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>58</v>
-      </c>
-      <c r="I117">
-        <v>0.0003426827549934387</v>
-      </c>
-      <c r="J117">
-        <v>97.81</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10">
-      <c r="G118">
-        <v>2</v>
-      </c>
-      <c r="H118">
-        <v>58</v>
-      </c>
-      <c r="I118">
-        <v>0.001696172815561295</v>
-      </c>
-      <c r="J118">
-        <v>87.18000000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="7:10">
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>59</v>
-      </c>
-      <c r="I119">
-        <v>0.0003427384033799171</v>
-      </c>
-      <c r="J119">
-        <v>97.81999999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10">
-      <c r="G120">
-        <v>2</v>
-      </c>
-      <c r="H120">
-        <v>59</v>
-      </c>
-      <c r="I120">
-        <v>0.001696243987977505</v>
-      </c>
-      <c r="J120">
-        <v>87.23999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="7:10">
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>60</v>
-      </c>
-      <c r="I121">
-        <v>0.0003408555682748556</v>
-      </c>
-      <c r="J121">
-        <v>97.87</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10">
-      <c r="G122">
-        <v>2</v>
-      </c>
-      <c r="H122">
-        <v>60</v>
-      </c>
-      <c r="I122">
-        <v>0.001695615258812904</v>
-      </c>
-      <c r="J122">
-        <v>87.19</v>
-      </c>
-    </row>
-    <row r="123" spans="7:10">
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>61</v>
-      </c>
-      <c r="I123">
-        <v>0.0003411030605435371</v>
-      </c>
-      <c r="J123">
-        <v>97.84999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="7:10">
-      <c r="G124">
-        <v>2</v>
-      </c>
-      <c r="H124">
-        <v>61</v>
-      </c>
-      <c r="I124">
-        <v>0.001693685844540596</v>
-      </c>
-      <c r="J124">
-        <v>87.23</v>
-      </c>
-    </row>
-    <row r="125" spans="7:10">
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>62</v>
-      </c>
-      <c r="I125">
-        <v>0.0003411713223904371</v>
-      </c>
-      <c r="J125">
-        <v>97.87</v>
-      </c>
-    </row>
-    <row r="126" spans="7:10">
-      <c r="G126">
-        <v>2</v>
-      </c>
-      <c r="H126">
-        <v>62</v>
-      </c>
-      <c r="I126">
-        <v>0.001692490160465241</v>
-      </c>
-      <c r="J126">
-        <v>87.2</v>
-      </c>
-    </row>
-    <row r="127" spans="7:10">
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>63</v>
-      </c>
-      <c r="I127">
-        <v>0.0003440493451431394</v>
-      </c>
-      <c r="J127">
-        <v>97.78</v>
-      </c>
-    </row>
-    <row r="128" spans="7:10">
-      <c r="G128">
-        <v>2</v>
-      </c>
-      <c r="H128">
-        <v>63</v>
-      </c>
-      <c r="I128">
-        <v>0.001694552233815193</v>
-      </c>
-      <c r="J128">
-        <v>87.27</v>
-      </c>
-    </row>
-    <row r="129" spans="7:10">
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>64</v>
-      </c>
-      <c r="I129">
-        <v>0.0003434715554118156</v>
-      </c>
-      <c r="J129">
-        <v>97.79000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="7:10">
-      <c r="G130">
-        <v>2</v>
-      </c>
-      <c r="H130">
-        <v>64</v>
-      </c>
-      <c r="I130">
-        <v>0.001694560608267784</v>
-      </c>
-      <c r="J130">
-        <v>87.31</v>
-      </c>
-    </row>
-    <row r="131" spans="7:10">
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>65</v>
-      </c>
-      <c r="I131">
-        <v>0.0003427810747176409</v>
-      </c>
-      <c r="J131">
-        <v>97.8</v>
-      </c>
-    </row>
-    <row r="132" spans="7:10">
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132">
-        <v>65</v>
-      </c>
-      <c r="I132">
-        <v>0.001695181904733181</v>
-      </c>
-      <c r="J132">
-        <v>87.23999999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="7:10">
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <v>66</v>
-      </c>
-      <c r="I133">
-        <v>0.0003427675975486636</v>
-      </c>
-      <c r="J133">
-        <v>97.81999999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="7:10">
-      <c r="G134">
-        <v>2</v>
-      </c>
-      <c r="H134">
-        <v>66</v>
-      </c>
-      <c r="I134">
-        <v>0.001696002233028412</v>
-      </c>
-      <c r="J134">
-        <v>87.19</v>
-      </c>
-    </row>
-    <row r="135" spans="7:10">
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>67</v>
-      </c>
-      <c r="I135">
-        <v>0.0003422282136976719</v>
-      </c>
-      <c r="J135">
-        <v>97.8</v>
-      </c>
-    </row>
-    <row r="136" spans="7:10">
-      <c r="G136">
-        <v>2</v>
-      </c>
-      <c r="H136">
-        <v>67</v>
-      </c>
-      <c r="I136">
-        <v>0.001695680059492588</v>
-      </c>
-      <c r="J136">
-        <v>87.19</v>
-      </c>
-    </row>
-    <row r="137" spans="7:10">
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>68</v>
-      </c>
-      <c r="I137">
-        <v>0.000344616799429059</v>
-      </c>
-      <c r="J137">
-        <v>97.79000000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="7:10">
-      <c r="G138">
-        <v>2</v>
-      </c>
-      <c r="H138">
-        <v>68</v>
-      </c>
-      <c r="I138">
-        <v>0.001694355104863644</v>
-      </c>
-      <c r="J138">
-        <v>87.27</v>
-      </c>
-    </row>
-    <row r="139" spans="7:10">
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>69</v>
-      </c>
-      <c r="I139">
-        <v>0.0003444077217951417</v>
-      </c>
-      <c r="J139">
-        <v>97.79000000000001</v>
-      </c>
-    </row>
-    <row r="140" spans="7:10">
-      <c r="G140">
-        <v>2</v>
-      </c>
-      <c r="H140">
-        <v>69</v>
-      </c>
-      <c r="I140">
-        <v>0.001694470217823982</v>
-      </c>
-      <c r="J140">
-        <v>87.23</v>
-      </c>
-    </row>
-    <row r="141" spans="7:10">
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>70</v>
-      </c>
-      <c r="I141">
-        <v>0.0003441872904077172</v>
-      </c>
-      <c r="J141">
-        <v>97.8</v>
-      </c>
-    </row>
-    <row r="142" spans="7:10">
-      <c r="G142">
-        <v>2</v>
-      </c>
-      <c r="H142">
-        <v>70</v>
-      </c>
-      <c r="I142">
-        <v>0.001694570119678974</v>
-      </c>
-      <c r="J142">
-        <v>87.23999999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="7:10">
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>71</v>
-      </c>
-      <c r="I143">
-        <v>0.0003439845029264688</v>
-      </c>
-      <c r="J143">
-        <v>97.8</v>
-      </c>
-    </row>
-    <row r="144" spans="7:10">
-      <c r="G144">
-        <v>2</v>
-      </c>
-      <c r="H144">
-        <v>71</v>
-      </c>
-      <c r="I144">
-        <v>0.001694717788696289</v>
-      </c>
-      <c r="J144">
-        <v>87.22</v>
-      </c>
-    </row>
-    <row r="145" spans="7:10">
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>72</v>
-      </c>
-      <c r="I145">
-        <v>0.0003438201289623976</v>
-      </c>
-      <c r="J145">
-        <v>97.81</v>
-      </c>
-    </row>
-    <row r="146" spans="7:10">
-      <c r="G146">
-        <v>2</v>
-      </c>
-      <c r="H146">
-        <v>72</v>
-      </c>
-      <c r="I146">
-        <v>0.00169454649835825</v>
-      </c>
-      <c r="J146">
-        <v>87.29000000000001</v>
+        <v>87.42</v>
       </c>
     </row>
   </sheetData>
